--- a/gams_results/gams_salt_st1_05m_forward.xlsx
+++ b/gams_results/gams_salt_st1_05m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="256">
   <si>
     <t>expr</t>
   </si>
@@ -172,18 +172,6 @@
     <t>QMinho + Qs_CUMSUM_3</t>
   </si>
   <si>
-    <t>QMinho + QMinho_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + QMinho_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + QMinho_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>QMinho + QMinho_CUMSUM_3</t>
-  </si>
-  <si>
     <t>QMinho + UI</t>
   </si>
   <si>
@@ -316,66 +304,6 @@
     <t>QMinho + Qs + AMO_LAG_2</t>
   </si>
   <si>
-    <t>QMinho + Qs + UI + datetime</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + monthofyear</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + NAO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EA</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EAWR</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + SCAND</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + WP</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + AMO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs + UI + AMO_LAG_2</t>
-  </si>
-  <si>
     <t>{'datetime': [0.0023927906353190236]}</t>
   </si>
   <si>
@@ -496,18 +424,6 @@
     <t>{'QMinho': [0.2492385094651351], 'Qs_CUMSUM_3': [0.20460388944731955]}</t>
   </si>
   <si>
-    <t>{'QMinho': [0.2492385094651351], 'QMinho_LAG_1': [0.19717044054573102]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'QMinho_LAG_2': [0.13645661638767936]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'QMinho_CUMSUM_2': [0.22615873961074084]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'QMinho_CUMSUM_3': [0.4275097994527882]}</t>
-  </si>
-  <si>
     <t>{'QMinho': [0.2492385094651351], 'UI': [0.1834037333851171]}</t>
   </si>
   <si>
@@ -640,66 +556,6 @@
     <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'AMO_LAG_2': [0.04211997766554587]}</t>
   </si>
   <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'datetime': [0.0023927906353190236]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'monthofyear': [0.18628441445710484]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'NAO': [0.01857283470481733]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'NAO_LAG_1': [0.047727180713511785]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'NAO_LAG_2': [0.1254748986605125]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EA': [0.012266251412784979]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EA_LAG_1': [0.008163582121073003]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EA_LAG_2': [0.00044289418946959197]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EAWR': [8.661196775059863e-05]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EAWR_LAG_1': [0.00046560316561209113]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'EAWR_LAG_2': [0.0017189563338100749]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'SCAND': [0.019550620166247094]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'SCAND_LAG_1': [0.0025565084592783227]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'SCAND_LAG_2': [0.003920641314225895]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'WP': [0.04675164400290957]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'WP_LAG_1': [0.008829110786737829]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'WP_LAG_2': [0.010791973359248443]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'AMO': [0.047644053708224395]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'AMO_LAG_1': [0.09847844983837749]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.2492385094651351], 'Qs': [0.04903441897620765], 'UI': [0.1834037333851171], 'AMO_LAG_2': [0.04211997766554587]}</t>
-  </si>
-  <si>
     <t>[0.24932632007594713, 1.1102230246251565e-16]</t>
   </si>
   <si>
@@ -796,18 +652,6 @@
     <t>[1.1102230246251565e-16, 0.6498716138515441, 1.1102230246251565e-16]</t>
   </si>
   <si>
-    <t>[1.1102230246251565e-16, 0.00040231892423259197, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 2.7136920357495598e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 3.63626906363379e-11, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 3.164697076063483e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
     <t>[1.1102230246251565e-16, 0.006420282968185642, 1.1102230246251565e-16]</t>
   </si>
   <si>
@@ -938,66 +782,6 @@
   </si>
   <si>
     <t>[1.1102230246251565e-16, 4.389881430888476e-05, 0.5773289854611894, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00021523023552982856, 0.024607707319117433, 0.06530580710666822, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.13049841269023732, 0.022892602315469857, 0.042869483803275155, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00033199622995394584, 0.04825384553678336, 0.6223729021351108, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.24477914288484026, 0.011266328418204519, 0.4717690091660077, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.23776764870279254, 0.011919454553492748, 0.8937489485427229, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0015348108281438844, 0.06690279234847596, 0.00961650525207114, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.23730776899274653, 0.01093796701074723, 0.8761440440211633, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.020806205389000465, 0.01932813431466207, 0.5845815638830181, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0010881125391049018, 0.038122818615175746, 0.17922650115477745, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.030900113993684974, 0.018051419152042336, 0.11342467841175718, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0005034629557481018, 0.025612987292002565, 0.2031026669594025, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0006166163616645459, 0.042623025766745815, 0.38321967901184584, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.242378540504812, 0.012899526347304957, 0.957806363058219, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.00017432706129805187, 0.049179687379019454, 0.21298661461416135, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0006883840104214833, 0.02729526796566495, 0.3374798616929502, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 2.0584157824021787e-05, 0.04293656189606199, 0.08729523392712324, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0015586570604648742, 0.017603075430868254, 0.034134106358538197, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.21402900630166366, 0.008950165777451558, 0.5751595281176709, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.25978149561950414, 0.008119958603981736, 0.6899851234672141, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.2263751980044868, 0.008648710276056404, 0.5446794474533818, 1.1102230246251565e-16]</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1431,13 +1215,13 @@
         <v>1.13512824365061</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="L2">
         <v>314</v>
       </c>
       <c r="M2" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1472,13 +1256,13 @@
         <v>0.7390968986603956</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="L3">
         <v>314</v>
       </c>
       <c r="M3" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1513,13 +1297,13 @@
         <v>0.8379060427982119</v>
       </c>
       <c r="K4" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="L4">
         <v>314</v>
       </c>
       <c r="M4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1554,13 +1338,13 @@
         <v>0.7533505053221662</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="L5">
         <v>314</v>
       </c>
       <c r="M5" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1595,13 +1379,13 @@
         <v>0.6629157333149752</v>
       </c>
       <c r="K6" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="L6">
         <v>314</v>
       </c>
       <c r="M6" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1636,13 +1420,13 @@
         <v>0.7811735800665399</v>
       </c>
       <c r="K7" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="L7">
         <v>314</v>
       </c>
       <c r="M7" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1677,13 +1461,13 @@
         <v>0.7573627059262542</v>
       </c>
       <c r="K8" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="L8">
         <v>314</v>
       </c>
       <c r="M8" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1718,13 +1502,13 @@
         <v>0.5931732023888892</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="L9">
         <v>314</v>
       </c>
       <c r="M9" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1759,13 +1543,13 @@
         <v>2.359010012399773</v>
       </c>
       <c r="K10" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="L10">
         <v>251</v>
       </c>
       <c r="M10" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1800,13 +1584,13 @@
         <v>0.7466379811209465</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="L11">
         <v>314</v>
       </c>
       <c r="M11" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1841,13 +1625,13 @@
         <v>0.6697289957342781</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="L12">
         <v>314</v>
       </c>
       <c r="M12" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1882,13 +1666,13 @@
         <v>0.6743404392027442</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="L13">
         <v>314</v>
       </c>
       <c r="M13" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1923,13 +1707,13 @@
         <v>0.6703597187786255</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="L14">
         <v>314</v>
       </c>
       <c r="M14" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1964,13 +1748,13 @@
         <v>0.691439426971275</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="L15">
         <v>314</v>
       </c>
       <c r="M15" t="s">
-        <v>231</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2005,13 +1789,13 @@
         <v>0.8301862567217364</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="L16">
         <v>314</v>
       </c>
       <c r="M16" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2046,13 +1830,13 @@
         <v>0.850341318383895</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="L17">
         <v>314</v>
       </c>
       <c r="M17" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2087,13 +1871,13 @@
         <v>0.8598248859552535</v>
       </c>
       <c r="K18" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="L18">
         <v>314</v>
       </c>
       <c r="M18" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2128,13 +1912,13 @@
         <v>0.8658740316337415</v>
       </c>
       <c r="K19" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L19">
         <v>314</v>
       </c>
       <c r="M19" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2169,13 +1953,13 @@
         <v>2.50478432293077</v>
       </c>
       <c r="K20" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L20">
         <v>314</v>
       </c>
       <c r="M20" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2210,13 +1994,13 @@
         <v>0.8591653738700671</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="L21">
         <v>314</v>
       </c>
       <c r="M21" t="s">
-        <v>239</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2251,13 +2035,13 @@
         <v>0.8776537571160925</v>
       </c>
       <c r="K22" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="L22">
         <v>314</v>
       </c>
       <c r="M22" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2292,13 +2076,13 @@
         <v>0.864350249914523</v>
       </c>
       <c r="K23" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="L23">
         <v>314</v>
       </c>
       <c r="M23" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2333,13 +2117,13 @@
         <v>0.8401832603704247</v>
       </c>
       <c r="K24" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="L24">
         <v>314</v>
       </c>
       <c r="M24" t="s">
-        <v>242</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2374,13 +2158,13 @@
         <v>0.8211980613207824</v>
       </c>
       <c r="K25" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="L25">
         <v>314</v>
       </c>
       <c r="M25" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2415,13 +2199,13 @@
         <v>0.8113246929120455</v>
       </c>
       <c r="K26" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="L26">
         <v>314</v>
       </c>
       <c r="M26" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2456,13 +2240,13 @@
         <v>0.8203560045970797</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="L27">
         <v>314</v>
       </c>
       <c r="M27" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2497,13 +2281,13 @@
         <v>0.8215074124866182</v>
       </c>
       <c r="K28" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="L28">
         <v>314</v>
       </c>
       <c r="M28" t="s">
-        <v>246</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2538,13 +2322,13 @@
         <v>0.8235088942497406</v>
       </c>
       <c r="K29" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="L29">
         <v>314</v>
       </c>
       <c r="M29" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2579,13 +2363,13 @@
         <v>0.8240010631831615</v>
       </c>
       <c r="K30" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="L30">
         <v>314</v>
       </c>
       <c r="M30" t="s">
-        <v>248</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2620,13 +2404,13 @@
         <v>0.8262449168605797</v>
       </c>
       <c r="K31" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="L31">
         <v>314</v>
       </c>
       <c r="M31" t="s">
-        <v>249</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2661,13 +2445,13 @@
         <v>0.818285646540639</v>
       </c>
       <c r="K32" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="L32">
         <v>314</v>
       </c>
       <c r="M32" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2702,13 +2486,13 @@
         <v>0.7915668941430565</v>
       </c>
       <c r="K33" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="L33">
         <v>314</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2743,13 +2527,13 @@
         <v>0.8071639074556025</v>
       </c>
       <c r="K34" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="L34">
         <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2784,13 +2568,13 @@
         <v>0.8181398194821214</v>
       </c>
       <c r="K35" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="L35">
         <v>314</v>
       </c>
       <c r="M35" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2825,13 +2609,13 @@
         <v>0.7446362609362598</v>
       </c>
       <c r="K36" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L36">
         <v>314</v>
       </c>
       <c r="M36" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2866,13 +2650,13 @@
         <v>0.6148418830764268</v>
       </c>
       <c r="K37" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L37">
         <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2907,13 +2691,13 @@
         <v>0.7293562299407091</v>
       </c>
       <c r="K38" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L38">
         <v>314</v>
       </c>
       <c r="M38" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2948,13 +2732,13 @@
         <v>0.7340568100763766</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="L39">
         <v>314</v>
       </c>
       <c r="M39" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2989,13 +2773,13 @@
         <v>0.7422999141530017</v>
       </c>
       <c r="K40" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="L40">
         <v>314</v>
       </c>
       <c r="M40" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3030,13 +2814,13 @@
         <v>0.7293747707238626</v>
       </c>
       <c r="K41" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="L41">
         <v>314</v>
       </c>
       <c r="M41" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3047,37 +2831,37 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>773.4030122018007</v>
+        <v>774.4577365522883</v>
       </c>
       <c r="D42">
-        <v>0.6228017153795017</v>
+        <v>0.6051001555170186</v>
       </c>
       <c r="E42">
-        <v>0.6227851611927674</v>
+        <v>0.6049638105025111</v>
       </c>
       <c r="F42">
-        <v>0.4375938048590915</v>
+        <v>0.4619615840584592</v>
       </c>
       <c r="G42">
-        <v>0.5376380446737035</v>
+        <v>0.5198426178731617</v>
       </c>
       <c r="H42">
-        <v>-365.039959819929</v>
+        <v>-371.5925370294971</v>
       </c>
       <c r="I42">
-        <v>0.4884243157445529</v>
+        <v>0.4819765711957572</v>
       </c>
       <c r="J42">
-        <v>1.039840945119863</v>
+        <v>0.707226303771438</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="L42">
         <v>314</v>
       </c>
       <c r="M42" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3088,37 +2872,37 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>772.698983794683</v>
+        <v>773.5578443971931</v>
       </c>
       <c r="D43">
-        <v>0.6241104904666294</v>
+        <v>0.6198437053477686</v>
       </c>
       <c r="E43">
-        <v>0.6240218811638176</v>
+        <v>0.6197666055997855</v>
       </c>
       <c r="F43">
-        <v>0.4330418012761147</v>
+        <v>0.4415765588686882</v>
       </c>
       <c r="G43">
-        <v>0.5451899709943235</v>
+        <v>0.5349512375267618</v>
       </c>
       <c r="H43">
-        <v>-366.9058012130546</v>
+        <v>-366.3076707108337</v>
       </c>
       <c r="I43">
-        <v>0.4837090662804918</v>
+        <v>0.4820587052446907</v>
       </c>
       <c r="J43">
-        <v>0.8440271103037779</v>
+        <v>0.695466114204517</v>
       </c>
       <c r="K43" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="L43">
         <v>314</v>
       </c>
       <c r="M43" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3129,37 +2913,37 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>771.7526745397026</v>
+        <v>778.9122850578641</v>
       </c>
       <c r="D44">
-        <v>0.634896552819601</v>
+        <v>0.5787601907934838</v>
       </c>
       <c r="E44">
-        <v>0.6348712354932833</v>
+        <v>0.5786164502676912</v>
       </c>
       <c r="F44">
-        <v>0.4163203908794936</v>
+        <v>0.5054171663166943</v>
       </c>
       <c r="G44">
-        <v>0.5601661457357039</v>
+        <v>0.4767276831382986</v>
       </c>
       <c r="H44">
-        <v>-364.3008959382399</v>
+        <v>-375.2012030232751</v>
       </c>
       <c r="I44">
-        <v>0.4744850126053652</v>
+        <v>0.4979139485132263</v>
       </c>
       <c r="J44">
-        <v>1.472074015699659</v>
+        <v>0.7369285260298808</v>
       </c>
       <c r="K44" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="L44">
         <v>314</v>
       </c>
       <c r="M44" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3170,37 +2954,37 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>771.2906088225767</v>
+        <v>778.4115689588158</v>
       </c>
       <c r="D45">
-        <v>0.6395190729471759</v>
+        <v>0.58411048703482</v>
       </c>
       <c r="E45">
-        <v>0.6395003596990112</v>
+        <v>0.5839305385300311</v>
       </c>
       <c r="F45">
-        <v>0.4083017523443439</v>
+        <v>0.4978991491746719</v>
       </c>
       <c r="G45">
-        <v>0.5685285620140939</v>
+        <v>0.482730793833837</v>
       </c>
       <c r="H45">
-        <v>-363.990146266142</v>
+        <v>-373.6687347572229</v>
       </c>
       <c r="I45">
-        <v>0.4689732473324373</v>
+        <v>0.4923077489022314</v>
       </c>
       <c r="J45">
-        <v>1.327053732003874</v>
+        <v>0.7356218993410528</v>
       </c>
       <c r="K45" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="L45">
         <v>314</v>
       </c>
       <c r="M45" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3211,37 +2995,37 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>774.4577365522883</v>
+        <v>778.2483826491201</v>
       </c>
       <c r="D46">
-        <v>0.6051001555170186</v>
+        <v>0.5848781489705662</v>
       </c>
       <c r="E46">
-        <v>0.6049638105025111</v>
+        <v>0.5847091448191513</v>
       </c>
       <c r="F46">
-        <v>0.4619615840584592</v>
+        <v>0.4965875872670402</v>
       </c>
       <c r="G46">
-        <v>0.5198426178731617</v>
+        <v>0.484071726267396</v>
       </c>
       <c r="H46">
-        <v>-371.5925370294971</v>
+        <v>-373.5745171231432</v>
       </c>
       <c r="I46">
-        <v>0.4819765711957572</v>
+        <v>0.4996093008865681</v>
       </c>
       <c r="J46">
-        <v>0.707226303771438</v>
+        <v>0.737643565315761</v>
       </c>
       <c r="K46" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="L46">
         <v>314</v>
       </c>
       <c r="M46" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3252,37 +3036,37 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>773.5578443971931</v>
+        <v>778.871008883124</v>
       </c>
       <c r="D47">
-        <v>0.6198437053477686</v>
+        <v>0.5820383289060913</v>
       </c>
       <c r="E47">
-        <v>0.6197666055997855</v>
+        <v>0.5818873125421358</v>
       </c>
       <c r="F47">
-        <v>0.4415765588686882</v>
+        <v>0.5013921297957449</v>
       </c>
       <c r="G47">
-        <v>0.5349512375267618</v>
+        <v>0.4790948936231672</v>
       </c>
       <c r="H47">
-        <v>-366.3076707108337</v>
+        <v>-373.8848064187476</v>
       </c>
       <c r="I47">
-        <v>0.4820587052446907</v>
+        <v>0.4990985355297492</v>
       </c>
       <c r="J47">
-        <v>0.695466114204517</v>
+        <v>0.7396294619790484</v>
       </c>
       <c r="K47" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="L47">
         <v>314</v>
       </c>
       <c r="M47" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3293,37 +3077,37 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>778.9122850578641</v>
+        <v>774.2770036875513</v>
       </c>
       <c r="D48">
-        <v>0.5787601907934838</v>
+        <v>0.6115814666533519</v>
       </c>
       <c r="E48">
-        <v>0.5786164502676912</v>
+        <v>0.6114723798031506</v>
       </c>
       <c r="F48">
-        <v>0.5054171663166943</v>
+        <v>0.4537286207884457</v>
       </c>
       <c r="G48">
-        <v>0.4767276831382986</v>
+        <v>0.5248864729181819</v>
       </c>
       <c r="H48">
-        <v>-375.2012030232751</v>
+        <v>-368.758370133128</v>
       </c>
       <c r="I48">
-        <v>0.4979139485132263</v>
+        <v>0.4813495843808119</v>
       </c>
       <c r="J48">
-        <v>0.7369285260298808</v>
+        <v>0.8043202608119885</v>
       </c>
       <c r="K48" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L48">
         <v>314</v>
       </c>
       <c r="M48" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3334,37 +3118,37 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>778.4115689588158</v>
+        <v>778.5400237293693</v>
       </c>
       <c r="D49">
-        <v>0.58411048703482</v>
+        <v>0.583984835421851</v>
       </c>
       <c r="E49">
-        <v>0.5839305385300311</v>
+        <v>0.5838478086807474</v>
       </c>
       <c r="F49">
-        <v>0.4978991491746719</v>
+        <v>0.4982921338891907</v>
       </c>
       <c r="G49">
-        <v>0.482730793833837</v>
+        <v>0.4820279533727172</v>
       </c>
       <c r="H49">
-        <v>-373.6687347572229</v>
+        <v>-373.5180189684091</v>
       </c>
       <c r="I49">
-        <v>0.4923077489022314</v>
+        <v>0.4993142362202861</v>
       </c>
       <c r="J49">
-        <v>0.7356218993410528</v>
+        <v>0.7526627599861029</v>
       </c>
       <c r="K49" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="L49">
         <v>314</v>
       </c>
       <c r="M49" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3375,37 +3159,37 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>778.2483826491201</v>
+        <v>777.7320208955666</v>
       </c>
       <c r="D50">
-        <v>0.5848781489705662</v>
+        <v>0.5877659829082196</v>
       </c>
       <c r="E50">
-        <v>0.5847091448191513</v>
+        <v>0.5875928121321212</v>
       </c>
       <c r="F50">
-        <v>0.4965875872670402</v>
+        <v>0.4919052320825318</v>
       </c>
       <c r="G50">
-        <v>0.484071726267396</v>
+        <v>0.4886442548135745</v>
       </c>
       <c r="H50">
-        <v>-373.5745171231432</v>
+        <v>-373.112694405506</v>
       </c>
       <c r="I50">
-        <v>0.4996093008865681</v>
+        <v>0.4940338208666881</v>
       </c>
       <c r="J50">
-        <v>0.737643565315761</v>
+        <v>0.7509638614665421</v>
       </c>
       <c r="K50" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="L50">
         <v>314</v>
       </c>
       <c r="M50" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3416,37 +3200,37 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>778.871008883124</v>
+        <v>776.5803035759867</v>
       </c>
       <c r="D51">
-        <v>0.5820383289060913</v>
+        <v>0.5940351477732465</v>
       </c>
       <c r="E51">
-        <v>0.5818873125421358</v>
+        <v>0.5938434949406153</v>
       </c>
       <c r="F51">
-        <v>0.5013921297957449</v>
+        <v>0.4815099843430155</v>
       </c>
       <c r="G51">
-        <v>0.4790948936231672</v>
+        <v>0.4990650298551162</v>
       </c>
       <c r="H51">
-        <v>-373.8848064187476</v>
+        <v>-372.2720233919876</v>
       </c>
       <c r="I51">
-        <v>0.4990985355297492</v>
+        <v>0.4977855673306695</v>
       </c>
       <c r="J51">
-        <v>0.7396294619790484</v>
+        <v>4.306864000942947</v>
       </c>
       <c r="K51" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="L51">
         <v>314</v>
       </c>
       <c r="M51" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3457,37 +3241,37 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>774.2770036875513</v>
+        <v>776.5961844693468</v>
       </c>
       <c r="D52">
-        <v>0.6115814666533519</v>
+        <v>0.5944809046102365</v>
       </c>
       <c r="E52">
-        <v>0.6114723798031506</v>
+        <v>0.5943224248610088</v>
       </c>
       <c r="F52">
-        <v>0.4537286207884457</v>
+        <v>0.4809791313959234</v>
       </c>
       <c r="G52">
-        <v>0.5248864729181819</v>
+        <v>0.4992757544079285</v>
       </c>
       <c r="H52">
-        <v>-368.758370133128</v>
+        <v>-372.0257240071641</v>
       </c>
       <c r="I52">
-        <v>0.4813495843808119</v>
+        <v>0.4864425882956914</v>
       </c>
       <c r="J52">
-        <v>0.8043202608119885</v>
+        <v>0.758819014124567</v>
       </c>
       <c r="K52" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="L52">
         <v>314</v>
       </c>
       <c r="M52" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3498,37 +3282,37 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>778.5400237293693</v>
+        <v>777.6656497632904</v>
       </c>
       <c r="D53">
-        <v>0.583984835421851</v>
+        <v>0.5887493826738451</v>
       </c>
       <c r="E53">
-        <v>0.5838478086807474</v>
+        <v>0.5885971384198576</v>
       </c>
       <c r="F53">
-        <v>0.4982921338891907</v>
+        <v>0.4905399781576617</v>
       </c>
       <c r="G53">
-        <v>0.4820279533727172</v>
+        <v>0.4896483396778399</v>
       </c>
       <c r="H53">
-        <v>-373.5180189684091</v>
+        <v>-372.7772832681146</v>
       </c>
       <c r="I53">
-        <v>0.4993142362202861</v>
+        <v>0.4882739231446753</v>
       </c>
       <c r="J53">
-        <v>0.7526627599861029</v>
+        <v>0.735763344587025</v>
       </c>
       <c r="K53" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="L53">
         <v>314</v>
       </c>
       <c r="M53" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3539,37 +3323,37 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>777.7320208955666</v>
+        <v>777.653513912452</v>
       </c>
       <c r="D54">
-        <v>0.5877659829082196</v>
+        <v>0.5872042146270756</v>
       </c>
       <c r="E54">
-        <v>0.5875928121321212</v>
+        <v>0.5870542875967595</v>
       </c>
       <c r="F54">
-        <v>0.4919052320825318</v>
+        <v>0.4923626958377316</v>
       </c>
       <c r="G54">
-        <v>0.4886442548135745</v>
+        <v>0.4887118769150213</v>
       </c>
       <c r="H54">
-        <v>-373.112694405506</v>
+        <v>-373.4712756885907</v>
       </c>
       <c r="I54">
-        <v>0.4940338208666881</v>
+        <v>0.4897345869871244</v>
       </c>
       <c r="J54">
-        <v>0.7509638614665421</v>
+        <v>0.7339908093385016</v>
       </c>
       <c r="K54" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="L54">
         <v>314</v>
       </c>
       <c r="M54" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3580,37 +3364,37 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>776.5803035759867</v>
+        <v>779.251907980101</v>
       </c>
       <c r="D55">
-        <v>0.5940351477732465</v>
+        <v>0.5799139284577288</v>
       </c>
       <c r="E55">
-        <v>0.5938434949406153</v>
+        <v>0.5797747530042776</v>
       </c>
       <c r="F55">
-        <v>0.4815099843430155</v>
+        <v>0.5047684088605229</v>
       </c>
       <c r="G55">
-        <v>0.4990650298551162</v>
+        <v>0.4758493372223705</v>
       </c>
       <c r="H55">
-        <v>-372.2720233919876</v>
+        <v>-374.2551872355142</v>
       </c>
       <c r="I55">
-        <v>0.4977855673306695</v>
+        <v>0.4982785168415407</v>
       </c>
       <c r="J55">
-        <v>4.306864000942947</v>
+        <v>0.7390190329358056</v>
       </c>
       <c r="K55" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="L55">
         <v>314</v>
       </c>
       <c r="M55" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3621,37 +3405,37 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>776.5961844693468</v>
+        <v>776.8879156717735</v>
       </c>
       <c r="D56">
-        <v>0.5944809046102365</v>
+        <v>0.5910514280688798</v>
       </c>
       <c r="E56">
-        <v>0.5943224248610088</v>
+        <v>0.5908549388493683</v>
       </c>
       <c r="F56">
-        <v>0.4809791313959234</v>
+        <v>0.4858930995870013</v>
       </c>
       <c r="G56">
-        <v>0.4992757544079285</v>
+        <v>0.49538373224898</v>
       </c>
       <c r="H56">
-        <v>-372.0257240071641</v>
+        <v>-373.0683246264686</v>
       </c>
       <c r="I56">
-        <v>0.4864425882956914</v>
+        <v>0.4941652969320785</v>
       </c>
       <c r="J56">
-        <v>0.758819014124567</v>
+        <v>0.6369811808470548</v>
       </c>
       <c r="K56" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="L56">
         <v>314</v>
       </c>
       <c r="M56" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3662,37 +3446,37 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>777.6656497632904</v>
+        <v>778.5430571776077</v>
       </c>
       <c r="D57">
-        <v>0.5887493826738451</v>
+        <v>0.5830469653211874</v>
       </c>
       <c r="E57">
-        <v>0.5885971384198576</v>
+        <v>0.5829187539717305</v>
       </c>
       <c r="F57">
-        <v>0.4905399781576617</v>
+        <v>0.499415050509446</v>
       </c>
       <c r="G57">
-        <v>0.4896483396778399</v>
+        <v>0.4814035114916024</v>
       </c>
       <c r="H57">
-        <v>-372.7772832681146</v>
+        <v>-373.9104474449548</v>
       </c>
       <c r="I57">
-        <v>0.4882739231446753</v>
+        <v>0.4948724594824565</v>
       </c>
       <c r="J57">
-        <v>0.735763344587025</v>
+        <v>0.737046458733201</v>
       </c>
       <c r="K57" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="L57">
         <v>314</v>
       </c>
       <c r="M57" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3703,37 +3487,37 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>777.653513912452</v>
+        <v>777.7828197669728</v>
       </c>
       <c r="D58">
-        <v>0.5872042146270756</v>
+        <v>0.5866219597749831</v>
       </c>
       <c r="E58">
-        <v>0.5870542875967595</v>
+        <v>0.5864332914992145</v>
       </c>
       <c r="F58">
-        <v>0.4923626958377316</v>
+        <v>0.493419566118027</v>
       </c>
       <c r="G58">
-        <v>0.4887118769150213</v>
+        <v>0.4876205450730819</v>
       </c>
       <c r="H58">
-        <v>-373.4712756885907</v>
+        <v>-373.5380279697563</v>
       </c>
       <c r="I58">
-        <v>0.4897345869871244</v>
+        <v>0.4938888537654479</v>
       </c>
       <c r="J58">
-        <v>0.7339908093385016</v>
+        <v>0.7344520229939514</v>
       </c>
       <c r="K58" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="L58">
         <v>314</v>
       </c>
       <c r="M58" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3744,37 +3528,37 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>779.251907980101</v>
+        <v>776.7883334395384</v>
       </c>
       <c r="D59">
-        <v>0.5799139284577288</v>
+        <v>0.5915106725271466</v>
       </c>
       <c r="E59">
-        <v>0.5797747530042776</v>
+        <v>0.5912789891811761</v>
       </c>
       <c r="F59">
-        <v>0.5047684088605229</v>
+        <v>0.4851273944342367</v>
       </c>
       <c r="G59">
-        <v>0.4758493372223705</v>
+        <v>0.4962239584692085</v>
       </c>
       <c r="H59">
-        <v>-374.2551872355142</v>
+        <v>-373.0537128139649</v>
       </c>
       <c r="I59">
-        <v>0.4982785168415407</v>
+        <v>0.49776802151701</v>
       </c>
       <c r="J59">
-        <v>0.7390190329358056</v>
+        <v>0.6049465825851367</v>
       </c>
       <c r="K59" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="L59">
         <v>314</v>
       </c>
       <c r="M59" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3785,37 +3569,37 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>776.8879156717735</v>
+        <v>777.9437565415366</v>
       </c>
       <c r="D60">
-        <v>0.5910514280688798</v>
+        <v>0.5855881885054409</v>
       </c>
       <c r="E60">
-        <v>0.5908549388493683</v>
+        <v>0.5853685858361954</v>
       </c>
       <c r="F60">
-        <v>0.4858930995870013</v>
+        <v>0.4950820099820773</v>
       </c>
       <c r="G60">
-        <v>0.49538373224898</v>
+        <v>0.4860787670514848</v>
       </c>
       <c r="H60">
-        <v>-373.0683246264686</v>
+        <v>-373.7496818506742</v>
       </c>
       <c r="I60">
-        <v>0.4941652969320785</v>
+        <v>0.4895952704957616</v>
       </c>
       <c r="J60">
-        <v>0.6369811808470548</v>
+        <v>0.733884183460806</v>
       </c>
       <c r="K60" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="L60">
         <v>314</v>
       </c>
       <c r="M60" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3826,37 +3610,37 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>778.5430571776077</v>
+        <v>778.9877071073322</v>
       </c>
       <c r="D61">
-        <v>0.5830469653211874</v>
+        <v>0.5807298794496488</v>
       </c>
       <c r="E61">
-        <v>0.5829187539717305</v>
+        <v>0.5805978542332392</v>
       </c>
       <c r="F61">
-        <v>0.499415050509446</v>
+        <v>0.5032002608044646</v>
       </c>
       <c r="G61">
-        <v>0.4814035114916024</v>
+        <v>0.4776732928049534</v>
       </c>
       <c r="H61">
-        <v>-373.9104474449548</v>
+        <v>-374.2680696511591</v>
       </c>
       <c r="I61">
-        <v>0.4948724594824565</v>
+        <v>0.4965685390440368</v>
       </c>
       <c r="J61">
-        <v>0.737046458733201</v>
+        <v>0.7350845986274556</v>
       </c>
       <c r="K61" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="L61">
         <v>314</v>
       </c>
       <c r="M61" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3867,37 +3651,37 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>777.7828197669728</v>
+        <v>777.9670360464251</v>
       </c>
       <c r="D62">
-        <v>0.5866219597749831</v>
+        <v>0.5854452292937118</v>
       </c>
       <c r="E62">
-        <v>0.5864332914992145</v>
+        <v>0.5853064965311023</v>
       </c>
       <c r="F62">
-        <v>0.493419566118027</v>
+        <v>0.4952116912610697</v>
       </c>
       <c r="G62">
-        <v>0.4876205450730819</v>
+        <v>0.4859164914405644</v>
       </c>
       <c r="H62">
-        <v>-373.5380279697563</v>
+        <v>-373.740785188952</v>
       </c>
       <c r="I62">
-        <v>0.4938888537654479</v>
+        <v>0.4887582174051412</v>
       </c>
       <c r="J62">
-        <v>0.7344520229939514</v>
+        <v>0.7366032103970188</v>
       </c>
       <c r="K62" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="L62">
         <v>314</v>
       </c>
       <c r="M62" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3908,37 +3692,37 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>776.7883334395384</v>
+        <v>769.2442230605627</v>
       </c>
       <c r="D63">
-        <v>0.5915106725271466</v>
+        <v>0.6666192177131688</v>
       </c>
       <c r="E63">
-        <v>0.5912789891811761</v>
+        <v>0.6665878483949907</v>
       </c>
       <c r="F63">
-        <v>0.4851273944342367</v>
+        <v>0.372257011375266</v>
       </c>
       <c r="G63">
-        <v>0.4962239584692085</v>
+        <v>0.5933651934767374</v>
       </c>
       <c r="H63">
-        <v>-373.0537128139649</v>
+        <v>-351.1898599058119</v>
       </c>
       <c r="I63">
-        <v>0.49776802151701</v>
+        <v>0.4526911010129113</v>
       </c>
       <c r="J63">
-        <v>0.6049465825851367</v>
+        <v>0.6678932023220167</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="L63">
         <v>314</v>
       </c>
       <c r="M63" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -3949,37 +3733,37 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>777.9437565415366</v>
+        <v>770.3129651215628</v>
       </c>
       <c r="D64">
-        <v>0.5855881885054409</v>
+        <v>0.6582091800250917</v>
       </c>
       <c r="E64">
-        <v>0.5853685858361954</v>
+        <v>0.6581559237798655</v>
       </c>
       <c r="F64">
-        <v>0.4950820099820773</v>
+        <v>0.3873548630762693</v>
       </c>
       <c r="G64">
-        <v>0.4860787670514848</v>
+        <v>0.5769554562661959</v>
       </c>
       <c r="H64">
-        <v>-373.7496818506742</v>
+        <v>-351.7475497706135</v>
       </c>
       <c r="I64">
-        <v>0.4895952704957616</v>
+        <v>0.4552073970989761</v>
       </c>
       <c r="J64">
-        <v>0.733884183460806</v>
+        <v>0.7415361272625078</v>
       </c>
       <c r="K64" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="L64">
         <v>314</v>
       </c>
       <c r="M64" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -3990,37 +3774,37 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>778.9877071073322</v>
+        <v>769.13206734247</v>
       </c>
       <c r="D65">
-        <v>0.5807298794496488</v>
+        <v>0.6676798849071597</v>
       </c>
       <c r="E65">
-        <v>0.5805978542332392</v>
+        <v>0.6676493531834952</v>
       </c>
       <c r="F65">
-        <v>0.5032002608044646</v>
+        <v>0.3699499072754222</v>
       </c>
       <c r="G65">
-        <v>0.4776732928049534</v>
+        <v>0.5963549109312647</v>
       </c>
       <c r="H65">
-        <v>-374.2680696511591</v>
+        <v>-351.5469961942511</v>
       </c>
       <c r="I65">
-        <v>0.4965685390440368</v>
+        <v>0.453176966171735</v>
       </c>
       <c r="J65">
-        <v>0.7350845986274556</v>
+        <v>0.7083834633827009</v>
       </c>
       <c r="K65" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="L65">
         <v>314</v>
       </c>
       <c r="M65" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4031,37 +3815,37 @@
         <v>76</v>
       </c>
       <c r="C66">
-        <v>777.9670360464251</v>
+        <v>769.3235879130217</v>
       </c>
       <c r="D66">
-        <v>0.5854452292937118</v>
+        <v>0.665759187707415</v>
       </c>
       <c r="E66">
-        <v>0.5853064965311023</v>
+        <v>0.6657125743955037</v>
       </c>
       <c r="F66">
-        <v>0.4952116912610697</v>
+        <v>0.3715158992654567</v>
       </c>
       <c r="G66">
-        <v>0.4859164914405644</v>
+        <v>0.5968457431660331</v>
       </c>
       <c r="H66">
-        <v>-373.740785188952</v>
+        <v>-353.5531474104043</v>
       </c>
       <c r="I66">
-        <v>0.4887582174051412</v>
+        <v>0.4556646893519832</v>
       </c>
       <c r="J66">
-        <v>0.7366032103970188</v>
+        <v>0.6700183996698327</v>
       </c>
       <c r="K66" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="L66">
         <v>314</v>
       </c>
       <c r="M66" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4072,37 +3856,37 @@
         <v>77</v>
       </c>
       <c r="C67">
-        <v>769.2442230605627</v>
+        <v>771.0068177554365</v>
       </c>
       <c r="D67">
-        <v>0.6666192177131688</v>
+        <v>0.6514555707609809</v>
       </c>
       <c r="E67">
-        <v>0.6665878483949907</v>
+        <v>0.6514266630006096</v>
       </c>
       <c r="F67">
-        <v>0.372257011375266</v>
+        <v>0.3971420088858953</v>
       </c>
       <c r="G67">
-        <v>0.5933651934767374</v>
+        <v>0.5689547808908191</v>
       </c>
       <c r="H67">
-        <v>-351.1898599058119</v>
+        <v>-354.2608743944642</v>
       </c>
       <c r="I67">
-        <v>0.4526911010129113</v>
+        <v>0.4628319676487022</v>
       </c>
       <c r="J67">
-        <v>0.6678932023220167</v>
+        <v>0.6352125101955723</v>
       </c>
       <c r="K67" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="L67">
         <v>314</v>
       </c>
       <c r="M67" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4113,37 +3897,37 @@
         <v>78</v>
       </c>
       <c r="C68">
-        <v>770.3129651215628</v>
+        <v>772.8728165705597</v>
       </c>
       <c r="D68">
-        <v>0.6582091800250917</v>
+        <v>0.6342071857136353</v>
       </c>
       <c r="E68">
-        <v>0.6581559237798655</v>
+        <v>0.6338322129938156</v>
       </c>
       <c r="F68">
-        <v>0.3873548630762693</v>
+        <v>0.4235056370225999</v>
       </c>
       <c r="G68">
-        <v>0.5769554562661959</v>
+        <v>0.5463757724202525</v>
       </c>
       <c r="H68">
-        <v>-351.7475497706135</v>
+        <v>-359.8451795519753</v>
       </c>
       <c r="I68">
-        <v>0.4552073970989761</v>
+        <v>0.4749164302821295</v>
       </c>
       <c r="J68">
-        <v>0.7415361272625078</v>
+        <v>0.627213968747052</v>
       </c>
       <c r="K68" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="L68">
         <v>314</v>
       </c>
       <c r="M68" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4154,37 +3938,37 @@
         <v>79</v>
       </c>
       <c r="C69">
-        <v>769.13206734247</v>
+        <v>773.6132975697037</v>
       </c>
       <c r="D69">
-        <v>0.6676798849071597</v>
+        <v>0.6299401968629014</v>
       </c>
       <c r="E69">
-        <v>0.6676493531834952</v>
+        <v>0.6296451760181384</v>
       </c>
       <c r="F69">
-        <v>0.3699499072754222</v>
+        <v>0.4309390452891521</v>
       </c>
       <c r="G69">
-        <v>0.5963549109312647</v>
+        <v>0.5384508009969863</v>
       </c>
       <c r="H69">
-        <v>-351.5469961942511</v>
+        <v>-360.2197756007061</v>
       </c>
       <c r="I69">
-        <v>0.453176966171735</v>
+        <v>0.478944847963839</v>
       </c>
       <c r="J69">
-        <v>0.7083834633827009</v>
+        <v>0.6398388459005243</v>
       </c>
       <c r="K69" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L69">
         <v>314</v>
       </c>
       <c r="M69" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4195,37 +3979,37 @@
         <v>80</v>
       </c>
       <c r="C70">
-        <v>769.3235879130217</v>
+        <v>773.9370149761322</v>
       </c>
       <c r="D70">
-        <v>0.665759187707415</v>
+        <v>0.6282269245586243</v>
       </c>
       <c r="E70">
-        <v>0.6657125743955037</v>
+        <v>0.6279143288206904</v>
       </c>
       <c r="F70">
-        <v>0.3715158992654567</v>
+        <v>0.4340092106244175</v>
       </c>
       <c r="G70">
-        <v>0.5968457431660331</v>
+        <v>0.5351820569960211</v>
       </c>
       <c r="H70">
-        <v>-353.5531474104043</v>
+        <v>-360.3860173258117</v>
       </c>
       <c r="I70">
-        <v>0.4556646893519832</v>
+        <v>0.4825081029250227</v>
       </c>
       <c r="J70">
-        <v>0.6700183996698327</v>
+        <v>0.7205779525196813</v>
       </c>
       <c r="K70" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="L70">
         <v>314</v>
       </c>
       <c r="M70" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4236,37 +4020,37 @@
         <v>81</v>
       </c>
       <c r="C71">
-        <v>771.0068177554365</v>
+        <v>770.7412681352739</v>
       </c>
       <c r="D71">
-        <v>0.6514555707609809</v>
+        <v>0.6497330878557089</v>
       </c>
       <c r="E71">
-        <v>0.6514266630006096</v>
+        <v>0.6493762373462652</v>
       </c>
       <c r="F71">
-        <v>0.3971420088858953</v>
+        <v>0.3961898811551385</v>
       </c>
       <c r="G71">
-        <v>0.5689547808908191</v>
+        <v>0.5752701135511287</v>
       </c>
       <c r="H71">
-        <v>-354.2608743944642</v>
+        <v>-358.5425953987209</v>
       </c>
       <c r="I71">
-        <v>0.4628319676487022</v>
+        <v>0.4655629972168829</v>
       </c>
       <c r="J71">
-        <v>0.6352125101955723</v>
+        <v>1.20395158399888</v>
       </c>
       <c r="K71" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="L71">
         <v>314</v>
       </c>
       <c r="M71" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4277,37 +4061,37 @@
         <v>82</v>
       </c>
       <c r="C72">
-        <v>772.8728165705597</v>
+        <v>773.8668348933973</v>
       </c>
       <c r="D72">
-        <v>0.6342071857136353</v>
+        <v>0.629052328172083</v>
       </c>
       <c r="E72">
-        <v>0.6338322129938156</v>
+        <v>0.6287544765952261</v>
       </c>
       <c r="F72">
-        <v>0.4235056370225999</v>
+        <v>0.432840336323358</v>
       </c>
       <c r="G72">
-        <v>0.5463757724202525</v>
+        <v>0.5360610081403134</v>
       </c>
       <c r="H72">
-        <v>-359.8451795519753</v>
+        <v>-360.0636142619668</v>
       </c>
       <c r="I72">
-        <v>0.4749164302821295</v>
+        <v>0.4822749914918633</v>
       </c>
       <c r="J72">
-        <v>0.627213968747052</v>
+        <v>0.7424338236670834</v>
       </c>
       <c r="K72" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="L72">
         <v>314</v>
       </c>
       <c r="M72" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4318,37 +4102,37 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>773.6132975697037</v>
+        <v>773.8001537698748</v>
       </c>
       <c r="D73">
-        <v>0.6299401968629014</v>
+        <v>0.6293308389741346</v>
       </c>
       <c r="E73">
-        <v>0.6296451760181384</v>
+        <v>0.6290593536428489</v>
       </c>
       <c r="F73">
-        <v>0.4309390452891521</v>
+        <v>0.4322669123309523</v>
       </c>
       <c r="G73">
-        <v>0.5384508009969863</v>
+        <v>0.5367085805054617</v>
       </c>
       <c r="H73">
-        <v>-360.2197756007061</v>
+        <v>-360.0581139303736</v>
       </c>
       <c r="I73">
-        <v>0.478944847963839</v>
+        <v>0.4775135537977706</v>
       </c>
       <c r="J73">
-        <v>0.6398388459005243</v>
+        <v>0.755045156734698</v>
       </c>
       <c r="K73" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="L73">
         <v>314</v>
       </c>
       <c r="M73" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4359,37 +4143,37 @@
         <v>84</v>
       </c>
       <c r="C74">
-        <v>773.9370149761322</v>
+        <v>769.6667120562814</v>
       </c>
       <c r="D74">
-        <v>0.6282269245586243</v>
+        <v>0.6629757158546723</v>
       </c>
       <c r="E74">
-        <v>0.6279143288206904</v>
+        <v>0.6629452564521361</v>
       </c>
       <c r="F74">
-        <v>0.4340092106244175</v>
+        <v>0.3787952574531654</v>
       </c>
       <c r="G74">
-        <v>0.5351820569960211</v>
+        <v>0.5862251502864044</v>
       </c>
       <c r="H74">
-        <v>-360.3860173258117</v>
+        <v>-351.3849500916507</v>
       </c>
       <c r="I74">
-        <v>0.4825081029250227</v>
+        <v>0.4590466941054192</v>
       </c>
       <c r="J74">
-        <v>0.7205779525196813</v>
+        <v>4.011776917477922</v>
       </c>
       <c r="K74" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L74">
         <v>314</v>
       </c>
       <c r="M74" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4400,37 +4184,37 @@
         <v>85</v>
       </c>
       <c r="C75">
-        <v>770.7412681352739</v>
+        <v>772.2942250051932</v>
       </c>
       <c r="D75">
-        <v>0.6497330878557089</v>
+        <v>0.63873502501463</v>
       </c>
       <c r="E75">
-        <v>0.6493762373462652</v>
+        <v>0.6384706415255452</v>
       </c>
       <c r="F75">
-        <v>0.3961898811551385</v>
+        <v>0.4161219687129974</v>
       </c>
       <c r="G75">
-        <v>0.5752701135511287</v>
+        <v>0.5532818224811653</v>
       </c>
       <c r="H75">
-        <v>-358.5425953987209</v>
+        <v>-358.7679722120766</v>
       </c>
       <c r="I75">
-        <v>0.4655629972168829</v>
+        <v>0.4658141225671987</v>
       </c>
       <c r="J75">
-        <v>1.20395158399888</v>
+        <v>0.9147837447196028</v>
       </c>
       <c r="K75" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L75">
         <v>314</v>
       </c>
       <c r="M75" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4441,37 +4225,37 @@
         <v>86</v>
       </c>
       <c r="C76">
-        <v>773.8668348933973</v>
+        <v>772.5225815987725</v>
       </c>
       <c r="D76">
-        <v>0.629052328172083</v>
+        <v>0.6370591007098717</v>
       </c>
       <c r="E76">
-        <v>0.6287544765952261</v>
+        <v>0.6367347815763412</v>
       </c>
       <c r="F76">
-        <v>0.432840336323358</v>
+        <v>0.4189527673685235</v>
       </c>
       <c r="G76">
-        <v>0.5360610081403134</v>
+        <v>0.5505475772719549</v>
       </c>
       <c r="H76">
-        <v>-360.0636142619668</v>
+        <v>-359.1176190811996</v>
       </c>
       <c r="I76">
-        <v>0.4822749914918633</v>
+        <v>0.4705243301687171</v>
       </c>
       <c r="J76">
-        <v>0.7424338236670834</v>
+        <v>0.9021560788484971</v>
       </c>
       <c r="K76" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="L76">
         <v>314</v>
       </c>
       <c r="M76" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4482,37 +4266,37 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>773.8001537698748</v>
+        <v>769.9221495660383</v>
       </c>
       <c r="D77">
-        <v>0.6293308389741346</v>
+        <v>0.6608358050911194</v>
       </c>
       <c r="E77">
-        <v>0.6290593536428489</v>
+        <v>0.6607926913478115</v>
       </c>
       <c r="F77">
-        <v>0.4322669123309523</v>
+        <v>0.3823856833471348</v>
       </c>
       <c r="G77">
-        <v>0.5367085805054617</v>
+        <v>0.5826277005943878</v>
       </c>
       <c r="H77">
-        <v>-360.0581139303736</v>
+        <v>-351.7751852930729</v>
       </c>
       <c r="I77">
-        <v>0.4775135537977706</v>
+        <v>0.4528158484409693</v>
       </c>
       <c r="J77">
-        <v>0.755045156734698</v>
+        <v>0.734586943439395</v>
       </c>
       <c r="K77" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L77">
         <v>314</v>
       </c>
       <c r="M77" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4523,37 +4307,37 @@
         <v>88</v>
       </c>
       <c r="C78">
-        <v>769.6667120562814</v>
+        <v>774.5508988680473</v>
       </c>
       <c r="D78">
-        <v>0.6629757158546723</v>
+        <v>0.6248628546140772</v>
       </c>
       <c r="E78">
-        <v>0.6629452564521361</v>
+        <v>0.6245750112348905</v>
       </c>
       <c r="F78">
-        <v>0.3787952574531654</v>
+        <v>0.4398010600555207</v>
       </c>
       <c r="G78">
-        <v>0.5862251502864044</v>
+        <v>0.5291657072165243</v>
       </c>
       <c r="H78">
-        <v>-351.3849500916507</v>
+        <v>-360.8155878582778</v>
       </c>
       <c r="I78">
-        <v>0.4590466941054192</v>
+        <v>0.4774466424945565</v>
       </c>
       <c r="J78">
-        <v>4.011776917477922</v>
+        <v>0.7386184892212843</v>
       </c>
       <c r="K78" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="L78">
         <v>314</v>
       </c>
       <c r="M78" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4564,37 +4348,37 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <v>772.2942250051932</v>
+        <v>771.8637464559987</v>
       </c>
       <c r="D79">
-        <v>0.63873502501463</v>
+        <v>0.6405137290492835</v>
       </c>
       <c r="E79">
-        <v>0.6384706415255452</v>
+        <v>0.6401200583928004</v>
       </c>
       <c r="F79">
-        <v>0.4161219687129974</v>
+        <v>0.4122268104147047</v>
       </c>
       <c r="G79">
-        <v>0.5532818224811653</v>
+        <v>0.5585492451244306</v>
       </c>
       <c r="H79">
-        <v>-358.7679722120766</v>
+        <v>-359.4494665038281</v>
       </c>
       <c r="I79">
-        <v>0.4658141225671987</v>
+        <v>0.4750579131240214</v>
       </c>
       <c r="J79">
-        <v>0.9147837447196028</v>
+        <v>0.6857001870638922</v>
       </c>
       <c r="K79" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="L79">
         <v>314</v>
       </c>
       <c r="M79" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4605,37 +4389,37 @@
         <v>90</v>
       </c>
       <c r="C80">
-        <v>772.5225815987725</v>
+        <v>773.4663004252455</v>
       </c>
       <c r="D80">
-        <v>0.6370591007098717</v>
+        <v>0.6304552165018847</v>
       </c>
       <c r="E80">
-        <v>0.6367347815763412</v>
+        <v>0.6301680261319562</v>
       </c>
       <c r="F80">
-        <v>0.4189527673685235</v>
+        <v>0.4298137502015508</v>
       </c>
       <c r="G80">
-        <v>0.5505475772719549</v>
+        <v>0.5398743715091421</v>
       </c>
       <c r="H80">
-        <v>-359.1176190811996</v>
+        <v>-360.3220546825933</v>
       </c>
       <c r="I80">
-        <v>0.4705243301687171</v>
+        <v>0.4777773523550691</v>
       </c>
       <c r="J80">
-        <v>0.9021560788484971</v>
+        <v>0.6414632551470463</v>
       </c>
       <c r="K80" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="L80">
         <v>314</v>
       </c>
       <c r="M80" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4646,37 +4430,37 @@
         <v>91</v>
       </c>
       <c r="C81">
-        <v>769.9221495660383</v>
+        <v>769.7673250131636</v>
       </c>
       <c r="D81">
-        <v>0.6608358050911194</v>
+        <v>0.662049762509249</v>
       </c>
       <c r="E81">
-        <v>0.6607926913478115</v>
+        <v>0.6619962949971274</v>
       </c>
       <c r="F81">
-        <v>0.3823856833471348</v>
+        <v>0.3802310474525483</v>
       </c>
       <c r="G81">
-        <v>0.5826277005943878</v>
+        <v>0.5849674414521334</v>
       </c>
       <c r="H81">
-        <v>-351.7751852930729</v>
+        <v>-351.6940637272045</v>
       </c>
       <c r="I81">
-        <v>0.4528158484409693</v>
+        <v>0.4584445967319857</v>
       </c>
       <c r="J81">
-        <v>0.734586943439395</v>
+        <v>0.7339155631966097</v>
       </c>
       <c r="K81" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="L81">
         <v>314</v>
       </c>
       <c r="M81" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4687,37 +4471,37 @@
         <v>92</v>
       </c>
       <c r="C82">
-        <v>774.5508988680473</v>
+        <v>769.1168840534716</v>
       </c>
       <c r="D82">
-        <v>0.6248628546140772</v>
+        <v>0.6678514217586226</v>
       </c>
       <c r="E82">
-        <v>0.6245750112348905</v>
+        <v>0.667806625340025</v>
       </c>
       <c r="F82">
-        <v>0.4398010600555207</v>
+        <v>0.3698234800009358</v>
       </c>
       <c r="G82">
-        <v>0.5291657072165243</v>
+        <v>0.5963134123991221</v>
       </c>
       <c r="H82">
-        <v>-360.8155878582778</v>
+        <v>-351.3837768479681</v>
       </c>
       <c r="I82">
-        <v>0.4774466424945565</v>
+        <v>0.4626642194715793</v>
       </c>
       <c r="J82">
-        <v>0.7386184892212843</v>
+        <v>0.6487036830439039</v>
       </c>
       <c r="K82" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="L82">
         <v>314</v>
       </c>
       <c r="M82" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4728,37 +4512,37 @@
         <v>93</v>
       </c>
       <c r="C83">
-        <v>771.8637464559987</v>
+        <v>772.6933165023222</v>
       </c>
       <c r="D83">
-        <v>0.6405137290492835</v>
+        <v>0.6347244138625028</v>
       </c>
       <c r="E83">
-        <v>0.6401200583928004</v>
+        <v>0.6343523000391165</v>
       </c>
       <c r="F83">
-        <v>0.4122268104147047</v>
+        <v>0.4221678271497318</v>
       </c>
       <c r="G83">
-        <v>0.5585492451244306</v>
+        <v>0.548275847805455</v>
       </c>
       <c r="H83">
-        <v>-359.4494665038281</v>
+        <v>-360.1334146579809</v>
       </c>
       <c r="I83">
-        <v>0.4750579131240214</v>
+        <v>0.4681686629448602</v>
       </c>
       <c r="J83">
-        <v>0.6857001870638922</v>
+        <v>0.730815920652973</v>
       </c>
       <c r="K83" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L83">
         <v>314</v>
       </c>
       <c r="M83" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4769,37 +4553,37 @@
         <v>94</v>
       </c>
       <c r="C84">
-        <v>773.4663004252455</v>
+        <v>773.9826228572914</v>
       </c>
       <c r="D84">
-        <v>0.6304552165018847</v>
+        <v>0.6273382360263198</v>
       </c>
       <c r="E84">
-        <v>0.6301680261319562</v>
+        <v>0.6270620507078237</v>
       </c>
       <c r="F84">
-        <v>0.4298137502015508</v>
+        <v>0.4351051597918408</v>
       </c>
       <c r="G84">
-        <v>0.5398743715091421</v>
+        <v>0.5344879061778298</v>
       </c>
       <c r="H84">
-        <v>-360.3220546825933</v>
+        <v>-360.7786209343474</v>
       </c>
       <c r="I84">
-        <v>0.4777773523550691</v>
+        <v>0.4730607406375507</v>
       </c>
       <c r="J84">
-        <v>0.6414632551470463</v>
+        <v>0.7329090700847875</v>
       </c>
       <c r="K84" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L84">
         <v>314</v>
       </c>
       <c r="M84" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4810,1021 +4594,37 @@
         <v>95</v>
       </c>
       <c r="C85">
-        <v>769.7673250131636</v>
+        <v>773.0338076583276</v>
       </c>
       <c r="D85">
-        <v>0.662049762509249</v>
+        <v>0.632595023454727</v>
       </c>
       <c r="E85">
-        <v>0.6619962949971274</v>
+        <v>0.632321599799762</v>
       </c>
       <c r="F85">
-        <v>0.3802310474525483</v>
+        <v>0.4257751322687455</v>
       </c>
       <c r="G85">
-        <v>0.5849674414521334</v>
+        <v>0.5444254986889576</v>
       </c>
       <c r="H85">
-        <v>-351.6940637272045</v>
+        <v>-360.3000392851901</v>
       </c>
       <c r="I85">
-        <v>0.4584445967319857</v>
+        <v>0.4655739922392138</v>
       </c>
       <c r="J85">
-        <v>0.7339155631966097</v>
+        <v>0.732446580059419</v>
       </c>
       <c r="K85" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L85">
         <v>314</v>
       </c>
       <c r="M85" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>96</v>
-      </c>
-      <c r="C86">
-        <v>769.1168840534716</v>
-      </c>
-      <c r="D86">
-        <v>0.6678514217586226</v>
-      </c>
-      <c r="E86">
-        <v>0.667806625340025</v>
-      </c>
-      <c r="F86">
-        <v>0.3698234800009358</v>
-      </c>
-      <c r="G86">
-        <v>0.5963134123991221</v>
-      </c>
-      <c r="H86">
-        <v>-351.3837768479681</v>
-      </c>
-      <c r="I86">
-        <v>0.4626642194715793</v>
-      </c>
-      <c r="J86">
-        <v>0.6487036830439039</v>
-      </c>
-      <c r="K86" t="s">
-        <v>204</v>
-      </c>
-      <c r="L86">
-        <v>314</v>
-      </c>
-      <c r="M86" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="1">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87">
-        <v>772.6933165023222</v>
-      </c>
-      <c r="D87">
-        <v>0.6347244138625028</v>
-      </c>
-      <c r="E87">
-        <v>0.6343523000391165</v>
-      </c>
-      <c r="F87">
-        <v>0.4221678271497318</v>
-      </c>
-      <c r="G87">
-        <v>0.548275847805455</v>
-      </c>
-      <c r="H87">
-        <v>-360.1334146579809</v>
-      </c>
-      <c r="I87">
-        <v>0.4681686629448602</v>
-      </c>
-      <c r="J87">
-        <v>0.730815920652973</v>
-      </c>
-      <c r="K87" t="s">
-        <v>205</v>
-      </c>
-      <c r="L87">
-        <v>314</v>
-      </c>
-      <c r="M87" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="1">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>98</v>
-      </c>
-      <c r="C88">
-        <v>773.9826228572914</v>
-      </c>
-      <c r="D88">
-        <v>0.6273382360263198</v>
-      </c>
-      <c r="E88">
-        <v>0.6270620507078237</v>
-      </c>
-      <c r="F88">
-        <v>0.4351051597918408</v>
-      </c>
-      <c r="G88">
-        <v>0.5344879061778298</v>
-      </c>
-      <c r="H88">
-        <v>-360.7786209343474</v>
-      </c>
-      <c r="I88">
-        <v>0.4730607406375507</v>
-      </c>
-      <c r="J88">
-        <v>0.7329090700847875</v>
-      </c>
-      <c r="K88" t="s">
-        <v>206</v>
-      </c>
-      <c r="L88">
-        <v>314</v>
-      </c>
-      <c r="M88" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="1">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>99</v>
-      </c>
-      <c r="C89">
-        <v>773.0338076583276</v>
-      </c>
-      <c r="D89">
-        <v>0.632595023454727</v>
-      </c>
-      <c r="E89">
-        <v>0.632321599799762</v>
-      </c>
-      <c r="F89">
-        <v>0.4257751322687455</v>
-      </c>
-      <c r="G89">
-        <v>0.5444254986889576</v>
-      </c>
-      <c r="H89">
-        <v>-360.3000392851901</v>
-      </c>
-      <c r="I89">
-        <v>0.4655739922392138</v>
-      </c>
-      <c r="J89">
-        <v>0.732446580059419</v>
-      </c>
-      <c r="K89" t="s">
-        <v>207</v>
-      </c>
-      <c r="L89">
-        <v>314</v>
-      </c>
-      <c r="M89" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90">
-        <v>769.7349012112129</v>
-      </c>
-      <c r="D90">
-        <v>0.6643308532634759</v>
-      </c>
-      <c r="E90">
-        <v>0.6639731295273457</v>
-      </c>
-      <c r="F90">
-        <v>0.3793887992240664</v>
-      </c>
-      <c r="G90">
-        <v>0.5827822941847558</v>
-      </c>
-      <c r="H90">
-        <v>-349.0623938451835</v>
-      </c>
-      <c r="I90">
-        <v>0.4498079884309252</v>
-      </c>
-      <c r="J90">
-        <v>0.7894136473076311</v>
-      </c>
-      <c r="K90" t="s">
-        <v>208</v>
-      </c>
-      <c r="L90">
-        <v>314</v>
-      </c>
-      <c r="M90" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91">
-        <v>778.3831327504827</v>
-      </c>
-      <c r="D91">
-        <v>0.5930781841969002</v>
-      </c>
-      <c r="E91">
-        <v>0.5928266654917929</v>
-      </c>
-      <c r="F91">
-        <v>0.4871956418287101</v>
-      </c>
-      <c r="G91">
-        <v>0.4885679098833451</v>
-      </c>
-      <c r="H91">
-        <v>-369.7954097669929</v>
-      </c>
-      <c r="I91">
-        <v>0.482517685300731</v>
-      </c>
-      <c r="J91">
-        <v>0.7130875948900879</v>
-      </c>
-      <c r="K91" t="s">
-        <v>209</v>
-      </c>
-      <c r="L91">
-        <v>314</v>
-      </c>
-      <c r="M91" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92">
-        <v>771.0217948843814</v>
-      </c>
-      <c r="D92">
-        <v>0.6559894398507697</v>
-      </c>
-      <c r="E92">
-        <v>0.6555956891048922</v>
-      </c>
-      <c r="F92">
-        <v>0.3939166567899962</v>
-      </c>
-      <c r="G92">
-        <v>0.5676041802475986</v>
-      </c>
-      <c r="H92">
-        <v>-350.2930423945378</v>
-      </c>
-      <c r="I92">
-        <v>0.4560216388563428</v>
-      </c>
-      <c r="J92">
-        <v>0.706304096928164</v>
-      </c>
-      <c r="K92" t="s">
-        <v>210</v>
-      </c>
-      <c r="L92">
-        <v>314</v>
-      </c>
-      <c r="M92" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93">
-        <v>782.7454185551918</v>
-      </c>
-      <c r="D93">
-        <v>0.5431407925173452</v>
-      </c>
-      <c r="E93">
-        <v>0.5431333704515069</v>
-      </c>
-      <c r="F93">
-        <v>0.5555369240232469</v>
-      </c>
-      <c r="G93">
-        <v>0.4358134885575643</v>
-      </c>
-      <c r="H93">
-        <v>-384.3878748186341</v>
-      </c>
-      <c r="I93">
-        <v>0.5081660401368848</v>
-      </c>
-      <c r="J93">
-        <v>0.7089276204453218</v>
-      </c>
-      <c r="K93" t="s">
-        <v>211</v>
-      </c>
-      <c r="L93">
-        <v>314</v>
-      </c>
-      <c r="M93" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94">
-        <v>782.9267643090197</v>
-      </c>
-      <c r="D94">
-        <v>0.5423887593578097</v>
-      </c>
-      <c r="E94">
-        <v>0.5423839785964168</v>
-      </c>
-      <c r="F94">
-        <v>0.5567442447432209</v>
-      </c>
-      <c r="G94">
-        <v>0.4345907626543067</v>
-      </c>
-      <c r="H94">
-        <v>-384.4794644990639</v>
-      </c>
-      <c r="I94">
-        <v>0.5094463664154739</v>
-      </c>
-      <c r="J94">
-        <v>0.7103204262516616</v>
-      </c>
-      <c r="K94" t="s">
-        <v>212</v>
-      </c>
-      <c r="L94">
-        <v>314</v>
-      </c>
-      <c r="M94" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95">
-        <v>768.9961529906564</v>
-      </c>
-      <c r="D95">
-        <v>0.6697037428878069</v>
-      </c>
-      <c r="E95">
-        <v>0.6692994170324508</v>
-      </c>
-      <c r="F95">
-        <v>0.3694375062103223</v>
-      </c>
-      <c r="G95">
-        <v>0.594089039105241</v>
-      </c>
-      <c r="H95">
-        <v>-349.0385495000778</v>
-      </c>
-      <c r="I95">
-        <v>0.4499587703336921</v>
-      </c>
-      <c r="J95">
-        <v>0.7140339587897478</v>
-      </c>
-      <c r="K95" t="s">
-        <v>213</v>
-      </c>
-      <c r="L95">
-        <v>314</v>
-      </c>
-      <c r="M95" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96">
-        <v>782.8015015995228</v>
-      </c>
-      <c r="D96">
-        <v>0.5430594616580979</v>
-      </c>
-      <c r="E96">
-        <v>0.5430522631491206</v>
-      </c>
-      <c r="F96">
-        <v>0.5557309908281319</v>
-      </c>
-      <c r="G96">
-        <v>0.4355383504961197</v>
-      </c>
-      <c r="H96">
-        <v>-384.3623322376068</v>
-      </c>
-      <c r="I96">
-        <v>0.5088914793227999</v>
-      </c>
-      <c r="J96">
-        <v>0.7152892517169972</v>
-      </c>
-      <c r="K96" t="s">
-        <v>214</v>
-      </c>
-      <c r="L96">
-        <v>314</v>
-      </c>
-      <c r="M96" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97">
-        <v>773.552707262096</v>
-      </c>
-      <c r="D97">
-        <v>0.6362984423744544</v>
-      </c>
-      <c r="E97">
-        <v>0.6358205871782499</v>
-      </c>
-      <c r="F97">
-        <v>0.4241220342670511</v>
-      </c>
-      <c r="G97">
-        <v>0.5409975601282992</v>
-      </c>
-      <c r="H97">
-        <v>-356.4605275733588</v>
-      </c>
-      <c r="I97">
-        <v>0.4700851293325584</v>
-      </c>
-      <c r="J97">
-        <v>0.7219348605533168</v>
-      </c>
-      <c r="K97" t="s">
-        <v>215</v>
-      </c>
-      <c r="L97">
-        <v>314</v>
-      </c>
-      <c r="M97" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98">
-        <v>769.9666036441834</v>
-      </c>
-      <c r="D98">
-        <v>0.6627031724899416</v>
-      </c>
-      <c r="E98">
-        <v>0.6623893262245072</v>
-      </c>
-      <c r="F98">
-        <v>0.3821676736165892</v>
-      </c>
-      <c r="G98">
-        <v>0.5798338203525695</v>
-      </c>
-      <c r="H98">
-        <v>-349.2570613087012</v>
-      </c>
-      <c r="I98">
-        <v>0.4599446133784139</v>
-      </c>
-      <c r="J98">
-        <v>4.114113697221158</v>
-      </c>
-      <c r="K98" t="s">
-        <v>216</v>
-      </c>
-      <c r="L98">
-        <v>314</v>
-      </c>
-      <c r="M98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99">
-        <v>772.1019954553384</v>
-      </c>
-      <c r="D99">
-        <v>0.6446603587507246</v>
-      </c>
-      <c r="E99">
-        <v>0.6442393583751718</v>
-      </c>
-      <c r="F99">
-        <v>0.4095932192425608</v>
-      </c>
-      <c r="G99">
-        <v>0.5560031330776469</v>
-      </c>
-      <c r="H99">
-        <v>-355.2148438007274</v>
-      </c>
-      <c r="I99">
-        <v>0.4601968357957777</v>
-      </c>
-      <c r="J99">
-        <v>0.7054340659714562</v>
-      </c>
-      <c r="K99" t="s">
-        <v>217</v>
-      </c>
-      <c r="L99">
-        <v>314</v>
-      </c>
-      <c r="M99" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100">
-        <v>770.2615281344201</v>
-      </c>
-      <c r="D100">
-        <v>0.6608979815127997</v>
-      </c>
-      <c r="E100">
-        <v>0.6605789041777157</v>
-      </c>
-      <c r="F100">
-        <v>0.385487375266672</v>
-      </c>
-      <c r="G100">
-        <v>0.576149067753849</v>
-      </c>
-      <c r="H100">
-        <v>-349.3623553326388</v>
-      </c>
-      <c r="I100">
-        <v>0.451988592298435</v>
-      </c>
-      <c r="J100">
-        <v>0.706903079604799</v>
-      </c>
-      <c r="K100" t="s">
-        <v>218</v>
-      </c>
-      <c r="L100">
-        <v>314</v>
-      </c>
-      <c r="M100" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101">
-        <v>770.6867466865938</v>
-      </c>
-      <c r="D101">
-        <v>0.6576608363454414</v>
-      </c>
-      <c r="E101">
-        <v>0.6573382131217493</v>
-      </c>
-      <c r="F101">
-        <v>0.3905798189664088</v>
-      </c>
-      <c r="G101">
-        <v>0.5714540704711796</v>
-      </c>
-      <c r="H101">
-        <v>-350.2932937583022</v>
-      </c>
-      <c r="I101">
-        <v>0.4570347808797201</v>
-      </c>
-      <c r="J101">
-        <v>0.7060992937696322</v>
-      </c>
-      <c r="K101" t="s">
-        <v>219</v>
-      </c>
-      <c r="L101">
-        <v>314</v>
-      </c>
-      <c r="M101" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102">
-        <v>782.8923177382277</v>
-      </c>
-      <c r="D102">
-        <v>0.5425296057310013</v>
-      </c>
-      <c r="E102">
-        <v>0.5425242114740931</v>
-      </c>
-      <c r="F102">
-        <v>0.556517663157037</v>
-      </c>
-      <c r="G102">
-        <v>0.4348211745742038</v>
-      </c>
-      <c r="H102">
-        <v>-384.4627118837611</v>
-      </c>
-      <c r="I102">
-        <v>0.5093696229971845</v>
-      </c>
-      <c r="J102">
-        <v>0.7094583347006567</v>
-      </c>
-      <c r="K102" t="s">
-        <v>220</v>
-      </c>
-      <c r="L102">
-        <v>314</v>
-      </c>
-      <c r="M102" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103">
-        <v>770.0324443690762</v>
-      </c>
-      <c r="D103">
-        <v>0.661796698830376</v>
-      </c>
-      <c r="E103">
-        <v>0.6614454672696821</v>
-      </c>
-      <c r="F103">
-        <v>0.3832057204598483</v>
-      </c>
-      <c r="G103">
-        <v>0.5794561081035033</v>
-      </c>
-      <c r="H103">
-        <v>-349.9211757109841</v>
-      </c>
-      <c r="I103">
-        <v>0.4613235199335066</v>
-      </c>
-      <c r="J103">
-        <v>0.7095490635491871</v>
-      </c>
-      <c r="K103" t="s">
-        <v>221</v>
-      </c>
-      <c r="L103">
-        <v>314</v>
-      </c>
-      <c r="M103" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104">
-        <v>771.0761473301063</v>
-      </c>
-      <c r="D104">
-        <v>0.6554155932933906</v>
-      </c>
-      <c r="E104">
-        <v>0.6551025848984793</v>
-      </c>
-      <c r="F104">
-        <v>0.3946216167030548</v>
-      </c>
-      <c r="G104">
-        <v>0.5670462895108224</v>
-      </c>
-      <c r="H104">
-        <v>-350.4925183390357</v>
-      </c>
-      <c r="I104">
-        <v>0.4610796972706909</v>
-      </c>
-      <c r="J104">
-        <v>0.7077787324458283</v>
-      </c>
-      <c r="K104" t="s">
-        <v>222</v>
-      </c>
-      <c r="L104">
-        <v>314</v>
-      </c>
-      <c r="M104" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105">
-        <v>766.8535301540626</v>
-      </c>
-      <c r="D105">
-        <v>0.6872828075427099</v>
-      </c>
-      <c r="E105">
-        <v>0.6872232517141286</v>
-      </c>
-      <c r="F105">
-        <v>0.3452459041460745</v>
-      </c>
-      <c r="G105">
-        <v>0.6114379358132649</v>
-      </c>
-      <c r="H105">
-        <v>-339.7945565144685</v>
-      </c>
-      <c r="I105">
-        <v>0.444983346435216</v>
-      </c>
-      <c r="J105">
-        <v>0.7013305729733899</v>
-      </c>
-      <c r="K105" t="s">
-        <v>223</v>
-      </c>
-      <c r="L105">
-        <v>314</v>
-      </c>
-      <c r="M105" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106">
-        <v>769.79387653418</v>
-      </c>
-      <c r="D106">
-        <v>0.6633436690484052</v>
-      </c>
-      <c r="E106">
-        <v>0.662968075815197</v>
-      </c>
-      <c r="F106">
-        <v>0.3803326237101204</v>
-      </c>
-      <c r="G106">
-        <v>0.5827406506827015</v>
-      </c>
-      <c r="H106">
-        <v>-349.9227279252035</v>
-      </c>
-      <c r="I106">
-        <v>0.4601582938711573</v>
-      </c>
-      <c r="J106">
-        <v>0.7091318360873462</v>
-      </c>
-      <c r="K106" t="s">
-        <v>224</v>
-      </c>
-      <c r="L106">
-        <v>314</v>
-      </c>
-      <c r="M106" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107">
-        <v>781.6103618485233</v>
-      </c>
-      <c r="D107">
-        <v>0.5478174373970576</v>
-      </c>
-      <c r="E107">
-        <v>0.5478130184422203</v>
-      </c>
-      <c r="F107">
-        <v>0.5479219031068545</v>
-      </c>
-      <c r="G107">
-        <v>0.4435875115879612</v>
-      </c>
-      <c r="H107">
-        <v>-383.856942504082</v>
-      </c>
-      <c r="I107">
-        <v>0.4977763250434844</v>
-      </c>
-      <c r="J107">
-        <v>0.7001815833829749</v>
-      </c>
-      <c r="K107" t="s">
-        <v>225</v>
-      </c>
-      <c r="L107">
-        <v>314</v>
-      </c>
-      <c r="M107" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108">
-        <v>781.4754770885879</v>
-      </c>
-      <c r="D108">
-        <v>0.5484075834302576</v>
-      </c>
-      <c r="E108">
-        <v>0.5484030359071028</v>
-      </c>
-      <c r="F108">
-        <v>0.5469676232024493</v>
-      </c>
-      <c r="G108">
-        <v>0.4445507085218832</v>
-      </c>
-      <c r="H108">
-        <v>-383.7864730308484</v>
-      </c>
-      <c r="I108">
-        <v>0.4985460282050252</v>
-      </c>
-      <c r="J108">
-        <v>0.7024456805692676</v>
-      </c>
-      <c r="K108" t="s">
-        <v>226</v>
-      </c>
-      <c r="L108">
-        <v>314</v>
-      </c>
-      <c r="M108" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109">
-        <v>781.1554340022203</v>
-      </c>
-      <c r="D109">
-        <v>0.5498169073714724</v>
-      </c>
-      <c r="E109">
-        <v>0.5498108900686014</v>
-      </c>
-      <c r="F109">
-        <v>0.5446860491720741</v>
-      </c>
-      <c r="G109">
-        <v>0.4468559168836653</v>
-      </c>
-      <c r="H109">
-        <v>-383.620749088231</v>
-      </c>
-      <c r="I109">
-        <v>0.4988755950631452</v>
-      </c>
-      <c r="J109">
-        <v>0.7005070058964719</v>
-      </c>
-      <c r="K109" t="s">
-        <v>227</v>
-      </c>
-      <c r="L109">
-        <v>314</v>
-      </c>
-      <c r="M109" t="s">
-        <v>327</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
